--- a/output/fyrst_education.xlsx
+++ b/output/fyrst_education.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -29,27 +29,27 @@
     <t xml:space="preserve">urbanhukou_res_fatherTRUE</t>
   </si>
   <si>
+    <t xml:space="preserve">education_years_res_father</t>
+  </si>
+  <si>
     <t xml:space="preserve">party_res_fatherTRUE</t>
   </si>
   <si>
-    <t xml:space="preserve">education_years_res_father</t>
-  </si>
-  <si>
     <t xml:space="preserve">job_res_fatherPublic</t>
   </si>
   <si>
     <t xml:space="preserve">ownership_res_fatherTRUE</t>
   </si>
   <si>
+    <t xml:space="preserve">key_hi_resTRUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">key_md_resTRUE</t>
+  </si>
+  <si>
     <t xml:space="preserve">key_pm_resTRUE</t>
   </si>
   <si>
-    <t xml:space="preserve">key_md_resTRUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">key_hi_resTRUE</t>
-  </si>
-  <si>
     <t xml:space="preserve">N</t>
   </si>
   <si>
@@ -71,24 +71,24 @@
     <t xml:space="preserve">Model 1</t>
   </si>
   <si>
-    <t xml:space="preserve">12.25 *** (0.52)</t>
+    <t xml:space="preserve">12.24 *** (0.52)</t>
   </si>
   <si>
     <t xml:space="preserve">-0.03 (0.02)</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.03 (0.11)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.14 *** (0.14)</t>
+    <t xml:space="preserve">-0.04 (0.11)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.15 *** (0.14)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.25 *** (0.02)</t>
   </si>
   <si>
     <t xml:space="preserve">0.71 *** (0.17)</t>
   </si>
   <si>
-    <t xml:space="preserve">0.25 *** (0.02)</t>
-  </si>
-  <si>
     <t xml:space="preserve">0.55 *** (0.14)</t>
   </si>
   <si>
@@ -104,145 +104,163 @@
     <t xml:space="preserve">Model 2</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.55 (0.61)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.02 (0.02)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.05 (0.13)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.03 *** (0.17)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.37 (0.19)</t>
+    <t xml:space="preserve">-1.46 ** (0.48)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.01 (0.01)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.03 (0.10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.90 *** (0.12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.18 *** (0.02)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.63 *** (0.18)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.66 *** (0.13)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.53 *** (0.10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.35 ** (0.51)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.01 (0.02)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.06 (0.11)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.88 *** (0.13)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.15 *** (0.02)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.64 *** (0.19)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.62 *** (0.14)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.44 *** (0.11)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25 *** (0.14)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.67 (0.51)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00 (0.10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.09 (0.13)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.05 * (0.02)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.18 (0.14)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.10 (0.12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17 (0.11)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.96 *** (0.11)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.78 *** (0.46)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.02 (0.01)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.13 (0.10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.02 (0.13)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.10 *** (0.02)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.21 (0.14)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11 (0.12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.27 ** (0.10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.61 *** (0.11)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.46 *** (0.60)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.08 (0.13)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.46 ** (0.17)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.05 (0.03)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.40 * (0.18)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.36 * (0.16)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.23 (0.13)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.61 *** (0.15)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.42 *** (0.49)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20 *** (0.15)</t>
   </si>
   <si>
     <t xml:space="preserve">0.04 (0.02)</t>
   </si>
   <si>
-    <t xml:space="preserve">0.22 (0.16)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.40 ** (0.13)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.02 *** (0.13)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.60 (0.74)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.04 (0.02)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.09 (0.14)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40 *** (0.21)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.18 (0.27)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.27 *** (0.03)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06 *** (0.26)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.52 *** (0.15)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.10 (0.15)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.91 *** (0.49)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.01 (0.01)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.11 (0.11)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.36 * (0.14)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.24 (0.15)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11 *** (0.02)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.34 * (0.13)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17 (0.11)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.53 *** (0.12)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.18 (0.64)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.01 (0.13)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.68 *** (0.16)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.98 *** (0.26)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.06 * (0.03)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.43 ** (0.17)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.51 *** (0.14)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.72 *** (0.15)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Model 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.64 ** (0.50)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.02 (0.01)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.04 (0.11)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.40 ** (0.14)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.23 (0.15)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.08 ** (0.02)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.36 ** (0.11)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.03 *** (0.11)</t>
+    <t xml:space="preserve">0.44 ** (0.14)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.21 (0.12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.43 *** (0.11)</t>
   </si>
 </sst>
 </file>
@@ -705,6 +723,7 @@
     <col min="5" max="5" width="10.71" hidden="0" customWidth="1"/>
     <col min="6" max="6" width="10.71" hidden="0" customWidth="1"/>
     <col min="7" max="7" width="10.71" hidden="0" customWidth="1"/>
+    <col min="8" max="8" width="10.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="NA" customHeight="1">
@@ -718,16 +737,19 @@
         <v>29</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="2" ht="NA" customHeight="1">
@@ -741,16 +763,19 @@
         <v>30</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="3" ht="NA" customHeight="1">
@@ -764,16 +789,19 @@
         <v>31</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>70</v>
+        <v>20</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="4" ht="NA" customHeight="1">
@@ -787,16 +815,19 @@
         <v>32</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="5" ht="NA" customHeight="1">
@@ -810,16 +841,19 @@
         <v>33</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="6" ht="NA" customHeight="1">
@@ -833,16 +867,19 @@
         <v>34</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="7" ht="NA" customHeight="1">
@@ -856,16 +893,19 @@
         <v>35</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="8" ht="NA" customHeight="1">
@@ -879,16 +919,19 @@
         <v>36</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>32</v>
+        <v>73</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="9" ht="NA" customHeight="1">
@@ -902,16 +945,19 @@
         <v>37</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="10" ht="NA" customHeight="1">
@@ -922,18 +968,21 @@
         <v>27</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>27</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="7" t="s">
         <v>27</v>
       </c>
     </row>
@@ -948,15 +997,18 @@
         <v>27</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="7" t="s">
         <v>27</v>
       </c>
     </row>
@@ -977,10 +1029,13 @@
         <v>27</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="13" ht="NA" customHeight="1">
@@ -988,22 +1043,25 @@
         <v>12</v>
       </c>
       <c r="B13" s="9" t="n">
-        <v>2304</v>
+        <v>2305</v>
       </c>
       <c r="C13" s="9" t="n">
-        <v>1812</v>
+        <v>2305</v>
       </c>
       <c r="D13" s="9" t="n">
-        <v>1859</v>
+        <v>2258</v>
       </c>
       <c r="E13" s="9" t="n">
-        <v>1787</v>
+        <v>1597</v>
       </c>
       <c r="F13" s="9" t="n">
-        <v>1578</v>
+        <v>2258</v>
       </c>
       <c r="G13" s="9" t="n">
-        <v>1538</v>
+        <v>2297</v>
+      </c>
+      <c r="H13" s="9" t="n">
+        <v>2300</v>
       </c>
     </row>
     <row r="14" ht="NA" customHeight="1">
@@ -1028,28 +1086,34 @@
       <c r="G14" s="7" t="s">
         <v>28</v>
       </c>
+      <c r="H14" s="7" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="15" ht="NA" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="7" t="n">
-        <v>11110.39</v>
+        <v>11115.06</v>
       </c>
       <c r="C15" s="7" t="n">
-        <v>1639.13</v>
+        <v>2349.23</v>
       </c>
       <c r="D15" s="7" t="n">
-        <v>1252.27</v>
+        <v>2199.78</v>
       </c>
       <c r="E15" s="7" t="n">
-        <v>2088.1</v>
+        <v>2121.82</v>
       </c>
       <c r="F15" s="7" t="n">
-        <v>1432.48</v>
+        <v>2420.06</v>
       </c>
       <c r="G15" s="7" t="n">
-        <v>1936.62</v>
+        <v>1590.9</v>
+      </c>
+      <c r="H15" s="7" t="n">
+        <v>2144.99</v>
       </c>
     </row>
     <row r="16" ht="NA" customHeight="1">
@@ -1057,22 +1121,25 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="n">
-        <v>11162.07</v>
+        <v>11166.74</v>
       </c>
       <c r="C16" s="7" t="n">
-        <v>1688.65</v>
+        <v>2395.17</v>
       </c>
       <c r="D16" s="7" t="n">
-        <v>1302.02</v>
+        <v>2251.28</v>
       </c>
       <c r="E16" s="7" t="n">
-        <v>2137.49</v>
+        <v>2170.2</v>
       </c>
       <c r="F16" s="7" t="n">
-        <v>1480.76</v>
+        <v>2471.56</v>
       </c>
       <c r="G16" s="7" t="n">
-        <v>1984.66</v>
+        <v>1642.55</v>
+      </c>
+      <c r="H16" s="7" t="n">
+        <v>2190.91</v>
       </c>
     </row>
     <row r="17" ht="NA" customHeight="1">
@@ -1083,18 +1150,21 @@
         <v>28</v>
       </c>
       <c r="C17" s="10" t="n">
-        <v>0.49</v>
+        <v>0.29</v>
       </c>
       <c r="D17" s="10" t="n">
-        <v>0.38</v>
+        <v>0.31</v>
       </c>
       <c r="E17" s="10" t="n">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="F17" s="10" t="n">
-        <v>0.15</v>
+        <v>0.21</v>
       </c>
       <c r="G17" s="10" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H17" s="10" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -1120,10 +1190,13 @@
       <c r="G18" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="H18" s="4" t="s">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A18:H18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
